--- a/data/Budget tracking.xlsx
+++ b/data/Budget tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{25D1F83D-168A-499D-8477-E583D3DFA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{503F5B62-2F90-4F3A-A370-15E344722423}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{25D1F83D-168A-499D-8477-E583D3DFA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{065D1F31-FAB1-4B5B-BE45-4B307F131CFF}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="2415" windowWidth="22095" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="2415" windowWidth="22095" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FY2022" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="22">
+  <numFmts count="21">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00,,&quot;m&quot;_);[Red]\(#,##0.00,,&quot;m&quot;\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00%_);[Red]\(0.00%\)"/>
@@ -117,7 +117,6 @@
     <numFmt numFmtId="181" formatCode="#,##0.0,&quot;K&quot;_);[Red]\(#,##0.0,&quot;K&quot;\)"/>
     <numFmt numFmtId="182" formatCode="@* \↓"/>
     <numFmt numFmtId="183" formatCode="[$-D00041E]#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -402,10 +401,9 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="37">
@@ -762,11 +760,9 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -823,13 +819,13 @@
       <c r="D2">
         <v>2022</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>2000</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f t="shared" ref="G2" si="0">E2-F2</f>
         <v>0</v>
       </c>
@@ -855,13 +851,13 @@
       <c r="D3">
         <v>2022</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>800</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G12" si="3">E3-F3</f>
         <v>200</v>
       </c>
@@ -887,13 +883,13 @@
       <c r="D4">
         <v>2022</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1200</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
@@ -919,13 +915,13 @@
       <c r="D5">
         <v>2022</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>950</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>870</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
@@ -951,13 +947,13 @@
       <c r="D6">
         <v>2022</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1600</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>800</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
@@ -983,13 +979,13 @@
       <c r="D7">
         <v>2022</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>900</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>600</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
@@ -1015,13 +1011,13 @@
       <c r="D8">
         <v>2022</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -1047,13 +1043,13 @@
       <c r="D9">
         <v>2022</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
@@ -1079,13 +1075,13 @@
       <c r="D10">
         <v>2022</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1050</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
@@ -1111,13 +1107,13 @@
       <c r="D11">
         <v>2022</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>800</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>780</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -1143,13 +1139,13 @@
       <c r="D12">
         <v>2022</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
@@ -1161,13 +1157,6 @@
         <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1184,11 +1173,9 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1245,13 +1232,13 @@
       <c r="D2">
         <v>2023</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>900</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>500</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f t="shared" ref="G2" si="0">E2-F2</f>
         <v>400</v>
       </c>
@@ -1277,13 +1264,13 @@
       <c r="D3">
         <v>2023</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1900</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1800</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G12" si="3">E3-F3</f>
         <v>100</v>
       </c>
@@ -1309,13 +1296,13 @@
       <c r="D4">
         <v>2023</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1300</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1200</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
@@ -1341,13 +1328,13 @@
       <c r="D5">
         <v>2023</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1850</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1600</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
@@ -1373,13 +1360,13 @@
       <c r="D6">
         <v>2023</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>900</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>950</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
@@ -1405,13 +1392,13 @@
       <c r="D7">
         <v>2023</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1200</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
@@ -1437,13 +1424,13 @@
       <c r="D8">
         <v>2023</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1650</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
@@ -1469,13 +1456,13 @@
       <c r="D9">
         <v>2023</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1150</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>-350</v>
       </c>
@@ -1501,13 +1488,13 @@
       <c r="D10">
         <v>2023</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1533,13 +1520,13 @@
       <c r="D11">
         <v>2023</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1450</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1100</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
@@ -1565,13 +1552,13 @@
       <c r="D12">
         <v>2023</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
@@ -1583,11 +1570,6 @@
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,11 +1586,9 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1665,13 +1645,13 @@
       <c r="D2">
         <v>2024</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1850</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>500</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f t="shared" ref="G2" si="0">E2-F2</f>
         <v>1350</v>
       </c>
@@ -1697,13 +1677,13 @@
       <c r="D3">
         <v>2024</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1300</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1025</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G12" si="3">E3-F3</f>
         <v>275</v>
       </c>
@@ -1729,13 +1709,13 @@
       <c r="D4">
         <v>2024</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2850</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>900</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="3"/>
         <v>1950</v>
       </c>
@@ -1761,13 +1741,13 @@
       <c r="D5">
         <v>2024</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1450</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>975</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="3"/>
         <v>475</v>
       </c>
@@ -1793,13 +1773,13 @@
       <c r="D6">
         <v>2024</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1950</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>975</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="3"/>
         <v>975</v>
       </c>
@@ -1825,13 +1805,13 @@
       <c r="D7">
         <v>2024</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1850</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>825</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="3"/>
         <v>1025</v>
       </c>
@@ -1857,13 +1837,13 @@
       <c r="D8">
         <v>2024</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1050</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
@@ -1889,13 +1869,13 @@
       <c r="D9">
         <v>2024</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2550</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>1750</v>
       </c>
@@ -1921,13 +1901,13 @@
       <c r="D10">
         <v>2024</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1550</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="3"/>
         <v>850</v>
       </c>
@@ -1953,13 +1933,13 @@
       <c r="D11">
         <v>2024</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2650</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>700</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="3"/>
         <v>1950</v>
       </c>
@@ -1985,13 +1965,13 @@
       <c r="D12">
         <v>2024</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>925</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
@@ -2003,11 +1983,6 @@
         <f t="shared" si="5"/>
         <v>0.6166666666666667</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Budget tracking.xlsx
+++ b/data/Budget tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{25D1F83D-168A-499D-8477-E583D3DFA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{065D1F31-FAB1-4B5B-BE45-4B307F131CFF}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{25D1F83D-168A-499D-8477-E583D3DFA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07602B79-5BD7-41D6-AC6B-4A544EE11376}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="2415" windowWidth="22095" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FY2022" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
   <si>
     <t>Budget</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>Last updated</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,11 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Calculation" xfId="2" builtinId="22" customBuiltin="1"/>
@@ -760,9 +764,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -770,14 +776,15 @@
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -791,22 +798,25 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -819,26 +829,29 @@
       <c r="D2">
         <v>2022</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
+        <v>44859</v>
+      </c>
+      <c r="F2" s="1">
         <v>2000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="1">
         <v>2000</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2" si="0">E2-F2</f>
+      <c r="H2" s="1">
+        <f>G2-F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2" si="1">G2/E2</f>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2" si="0">H2/F2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2" si="2">F2/E2</f>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2" si="1">G2/F2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -851,26 +864,29 @@
       <c r="D3">
         <v>2022</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
+        <v>44912</v>
+      </c>
+      <c r="F3" s="1">
         <v>1000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="1">
         <v>800</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G12" si="3">E3-F3</f>
-        <v>200</v>
-      </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H12" si="4">G3/E3</f>
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I12" si="5">F3/E3</f>
+        <f t="shared" ref="H3:H12" si="2">G3-F3</f>
+        <v>-200</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I12" si="3">H3/F3</f>
+        <v>-0.2</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J12" si="4">G3/F3</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -883,26 +899,29 @@
       <c r="D4">
         <v>2022</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
+        <v>44909</v>
+      </c>
+      <c r="F4" s="1">
         <v>1000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="1">
         <v>1200</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>-200</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -915,26 +934,29 @@
       <c r="D5">
         <v>2022</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
+        <v>44901</v>
+      </c>
+      <c r="F5" s="1">
         <v>950</v>
       </c>
-      <c r="F5" s="2">
-        <v>870</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>80</v>
+      <c r="G5" s="1">
+        <v>860</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
-        <v>8.4210526315789472E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="5"/>
-        <v>0.91578947368421049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>-90</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.4736842105263161E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.90526315789473688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -947,26 +969,29 @@
       <c r="D6">
         <v>2022</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
+        <v>44904</v>
+      </c>
+      <c r="F6" s="1">
         <v>1600</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="1">
         <v>800</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
       <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>-800</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1500</v>
       </c>
@@ -979,26 +1004,29 @@
       <c r="D7">
         <v>2022</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
+        <v>44887</v>
+      </c>
+      <c r="F7" s="1">
         <v>900</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="1">
         <v>600</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-300</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1011,26 +1039,29 @@
       <c r="D8">
         <v>2022</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
+        <v>44879</v>
+      </c>
+      <c r="F8" s="1">
         <v>700</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="1">
         <v>500</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-200</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -1043,26 +1074,29 @@
       <c r="D9">
         <v>2022</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
+        <v>44889</v>
+      </c>
+      <c r="F9" s="1">
         <v>500</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="1">
         <v>600</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.2</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1075,26 +1109,29 @@
       <c r="D10">
         <v>2022</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
+        <v>44912</v>
+      </c>
+      <c r="F10" s="1">
         <v>1200</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="1">
         <v>1050</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-150</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.125</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -1107,26 +1144,29 @@
       <c r="D11">
         <v>2022</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
+        <v>44897</v>
+      </c>
+      <c r="F11" s="1">
         <v>800</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="1">
         <v>780</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>4000</v>
       </c>
@@ -1139,22 +1179,25 @@
       <c r="D12">
         <v>2022</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
+        <v>44907</v>
+      </c>
+      <c r="F12" s="1">
         <v>900</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="1">
         <v>1200</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>-300</v>
-      </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -1170,12 +1213,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F707A9-770B-420E-AE22-90D1B9A36E81}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1183,14 +1228,15 @@
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1204,22 +1250,25 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1232,26 +1281,29 @@
       <c r="D2">
         <v>2023</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
+        <v>45234</v>
+      </c>
+      <c r="F2" s="1">
         <v>900</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2" si="0">E2-F2</f>
-        <v>400</v>
-      </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2" si="1">G2/E2</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2" si="2">F2/E2</f>
+        <f>G2-F2</f>
+        <v>-400</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2" si="0">H2/F2</f>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2" si="1">G2/F2</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1264,26 +1316,29 @@
       <c r="D3">
         <v>2023</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
+        <v>45199</v>
+      </c>
+      <c r="F3" s="1">
         <v>1900</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="1">
         <v>1800</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G12" si="3">E3-F3</f>
-        <v>100</v>
-      </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H12" si="4">G3/E3</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I12" si="5">F3/E3</f>
+        <f t="shared" ref="H3:H12" si="2">G3-F3</f>
+        <v>-100</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I12" si="3">H3/F3</f>
+        <v>-5.2631578947368418E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J12" si="4">G3/F3</f>
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -1296,26 +1351,29 @@
       <c r="D4">
         <v>2023</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
+        <v>45216</v>
+      </c>
+      <c r="F4" s="1">
         <v>1300</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="1">
         <v>1200</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.6923076923076927E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1328,26 +1386,29 @@
       <c r="D5">
         <v>2023</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
+        <v>45237</v>
+      </c>
+      <c r="F5" s="1">
         <v>1850</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="1">
         <v>1600</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-250</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.13513513513513514</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
         <v>0.86486486486486491</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1360,26 +1421,29 @@
       <c r="D6">
         <v>2023</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
+        <v>45240</v>
+      </c>
+      <c r="F6" s="1">
         <v>900</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="1">
         <v>950</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
       <c r="H6" s="1">
-        <f t="shared" si="4"/>
-        <v>-5.5555555555555552E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
         <v>1.0555555555555556</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1500</v>
       </c>
@@ -1392,26 +1456,29 @@
       <c r="D7">
         <v>2023</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
+        <v>45225</v>
+      </c>
+      <c r="F7" s="1">
         <v>1000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="1">
         <v>1200</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>-200</v>
-      </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1424,26 +1491,29 @@
       <c r="D8">
         <v>2023</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
+        <v>45204</v>
+      </c>
+      <c r="F8" s="1">
         <v>1100</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="1">
         <v>1650</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>-550</v>
-      </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.5</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -1456,26 +1526,29 @@
       <c r="D9">
         <v>2023</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
+        <v>45208</v>
+      </c>
+      <c r="F9" s="1">
         <v>1150</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="1">
         <v>1500</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>-350</v>
-      </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.30434782608695654</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1488,26 +1561,29 @@
       <c r="D10">
         <v>2023</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
+        <v>45273</v>
+      </c>
+      <c r="F10" s="1">
         <v>1300</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="1">
         <v>1300</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="4"/>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="5"/>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -1520,26 +1596,29 @@
       <c r="D11">
         <v>2023</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
+        <v>45272</v>
+      </c>
+      <c r="F11" s="1">
         <v>1450</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="1">
         <v>1100</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-350</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.2413793103448276</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
         <v>0.75862068965517238</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>4000</v>
       </c>
@@ -1552,22 +1631,25 @@
       <c r="D12">
         <v>2023</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
+        <v>45244</v>
+      </c>
+      <c r="F12" s="1">
         <v>1000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="1">
         <v>900</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
@@ -1583,12 +1665,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854AB906-5FF3-4612-B33E-0BA7EFAFE78C}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1596,14 +1680,15 @@
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1617,22 +1702,25 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1645,26 +1733,29 @@
       <c r="D2">
         <v>2024</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
+        <v>45455</v>
+      </c>
+      <c r="F2" s="1">
         <v>1850</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2" si="0">E2-F2</f>
-        <v>1350</v>
-      </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2" si="1">G2/E2</f>
-        <v>0.72972972972972971</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2" si="2">F2/E2</f>
+        <f>G2-F2</f>
+        <v>-1350</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2" si="0">H2/F2</f>
+        <v>-0.72972972972972971</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2" si="1">G2/F2</f>
         <v>0.27027027027027029</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1677,26 +1768,29 @@
       <c r="D3">
         <v>2024</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
+        <v>45439</v>
+      </c>
+      <c r="F3" s="1">
         <v>1300</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="1">
         <v>1025</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G12" si="3">E3-F3</f>
-        <v>275</v>
-      </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H12" si="4">G3/E3</f>
-        <v>0.21153846153846154</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I12" si="5">F3/E3</f>
+        <f t="shared" ref="H3:H12" si="2">G3-F3</f>
+        <v>-275</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I12" si="3">H3/F3</f>
+        <v>-0.21153846153846154</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J12" si="4">G3/F3</f>
         <v>0.78846153846153844</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2500</v>
       </c>
@@ -1709,26 +1803,29 @@
       <c r="D4">
         <v>2024</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
+        <v>45429</v>
+      </c>
+      <c r="F4" s="1">
         <v>2850</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="1">
         <v>900</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>1950</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" si="4"/>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-1950</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.68421052631578949</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1741,26 +1838,29 @@
       <c r="D5">
         <v>2024</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
+        <v>45509</v>
+      </c>
+      <c r="F5" s="1">
         <v>1450</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="1">
         <v>975</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>475</v>
-      </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
-        <v>0.32758620689655171</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-475</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.32758620689655171</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
         <v>0.67241379310344829</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1773,26 +1873,29 @@
       <c r="D6">
         <v>2024</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
+        <v>45394</v>
+      </c>
+      <c r="F6" s="1">
         <v>1950</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="1">
         <v>975</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>975</v>
-      </c>
       <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>-975</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1500</v>
       </c>
@@ -1805,26 +1908,29 @@
       <c r="D7">
         <v>2024</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
+        <v>45465</v>
+      </c>
+      <c r="F7" s="1">
         <v>1850</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="1">
         <v>825</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>1025</v>
-      </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>0.55405405405405406</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-1025</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.55405405405405406</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
         <v>0.44594594594594594</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1837,26 +1943,29 @@
       <c r="D8">
         <v>2024</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
+        <v>45546</v>
+      </c>
+      <c r="F8" s="1">
         <v>1400</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="1">
         <v>1050</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-350</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.25</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -1869,26 +1978,29 @@
       <c r="D9">
         <v>2024</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
+        <v>45396</v>
+      </c>
+      <c r="F9" s="1">
         <v>2550</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="1">
         <v>800</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>1750</v>
-      </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>0.68627450980392157</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-1750</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.68627450980392157</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
         <v>0.31372549019607843</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1901,26 +2013,29 @@
       <c r="D10">
         <v>2024</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
+        <v>45423</v>
+      </c>
+      <c r="F10" s="1">
         <v>1550</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="1">
         <v>700</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>850</v>
-      </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>0.54838709677419351</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-850</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.54838709677419351</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
         <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -1933,26 +2048,29 @@
       <c r="D11">
         <v>2024</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
+        <v>45491</v>
+      </c>
+      <c r="F11" s="1">
         <v>2650</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="1">
         <v>700</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>1950</v>
-      </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.73584905660377353</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-1950</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.73584905660377353</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
         <v>0.26415094339622641</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>4000</v>
       </c>
@@ -1965,22 +2083,25 @@
       <c r="D12">
         <v>2024</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
+        <v>45404</v>
+      </c>
+      <c r="F12" s="1">
         <v>1500</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="1">
         <v>925</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>575</v>
-      </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>0.38333333333333336</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-575</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.38333333333333336</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
         <v>0.6166666666666667</v>
       </c>
     </row>

--- a/data/Budget tracking.xlsx
+++ b/data/Budget tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{25D1F83D-168A-499D-8477-E583D3DFA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07602B79-5BD7-41D6-AC6B-4A544EE11376}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{25D1F83D-168A-499D-8477-E583D3DFA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A438CFCE-19BB-41FD-8D84-7DE4E51DDB48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,8 +766,458 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44859</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
+        <f>G2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2" si="0">H2/F2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2" si="1">G2/F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44912</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>800</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H12" si="2">G3-F3</f>
+        <v>-200</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I12" si="3">H3/F3</f>
+        <v>-0.2</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J12" si="4">G3/F3</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44909</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44901</v>
+      </c>
+      <c r="F5" s="1">
+        <v>950</v>
+      </c>
+      <c r="G5" s="1">
+        <v>860</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>-90</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.4736842105263161E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.90526315789473688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44904</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>-2000</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.25</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1500</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44887</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>-3000</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.3</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44879</v>
+      </c>
+      <c r="F8" s="1">
+        <v>700</v>
+      </c>
+      <c r="G8" s="1">
+        <v>500</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>-200</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>4000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44889</v>
+      </c>
+      <c r="F9" s="1">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>600</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44912</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1050</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>-150</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.125</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>3000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44897</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>4000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44907</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
+    <oddFooter>&amp;L&amp;8&amp;Z&amp;F&amp;R&amp;8&amp;D &amp;T</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F707A9-770B-420E-AE22-90D1B9A36E81}">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,28 +1277,28 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E2" s="3">
-        <v>44859</v>
+        <v>45234</v>
       </c>
       <c r="F2" s="1">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="G2" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="H2" s="1">
         <f>G2-F2</f>
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2" si="0">H2/F2</f>
-        <v>0</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2" si="1">G2/F2</f>
-        <v>1</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -862,28 +1312,28 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E3" s="3">
-        <v>44912</v>
+        <v>45199</v>
       </c>
       <c r="F3" s="1">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="G3" s="1">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H12" si="2">G3-F3</f>
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I12" si="3">H3/F3</f>
-        <v>-0.2</v>
+        <v>-5.2631578947368418E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J12" si="4">G3/F3</f>
-        <v>0.8</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -897,28 +1347,28 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E4" s="3">
-        <v>44909</v>
+        <v>45216</v>
       </c>
       <c r="F4" s="1">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G4" s="1">
         <v>1200</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>-7.6923076923076927E-2</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -932,28 +1382,28 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E5" s="3">
-        <v>44901</v>
+        <v>45237</v>
       </c>
       <c r="F5" s="1">
-        <v>950</v>
+        <v>1850</v>
       </c>
       <c r="G5" s="1">
-        <v>860</v>
+        <v>1600</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>-90</v>
+        <v>-250</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="3"/>
-        <v>-9.4736842105263161E-2</v>
+        <v>-0.13513513513513514</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>0.90526315789473688</v>
+        <v>0.86486486486486491</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -967,28 +1417,28 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E6" s="3">
-        <v>44904</v>
+        <v>45240</v>
       </c>
       <c r="F6" s="1">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="G6" s="1">
-        <v>800</v>
+        <v>7500</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>-800</v>
+        <v>500</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.0714285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1002,28 +1452,28 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E7" s="3">
-        <v>44887</v>
+        <v>45225</v>
       </c>
       <c r="F7" s="1">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="1">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>-300</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="3"/>
-        <v>-0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1037,28 +1487,28 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E8" s="3">
-        <v>44879</v>
+        <v>45204</v>
       </c>
       <c r="F8" s="1">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G8" s="1">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>-200</v>
+        <v>550</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>-0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1072,28 +1522,28 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E9" s="3">
-        <v>44889</v>
+        <v>45208</v>
       </c>
       <c r="F9" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1107,28 +1557,28 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E10" s="3">
-        <v>44912</v>
+        <v>45273</v>
       </c>
       <c r="F10" s="1">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="1">
-        <v>1050</v>
+        <v>1300</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1142,28 +1592,28 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E11" s="3">
-        <v>44897</v>
+        <v>45272</v>
       </c>
       <c r="F11" s="1">
-        <v>800</v>
+        <v>14500</v>
       </c>
       <c r="G11" s="1">
-        <v>780</v>
+        <v>11000</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>-20</v>
+        <v>-3500</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.2413793103448276</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="4"/>
-        <v>0.97499999999999998</v>
+        <v>0.75862068965517238</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1177,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E12" s="3">
-        <v>44907</v>
+        <v>45244</v>
       </c>
       <c r="F12" s="1">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="1">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>-1000</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>-0.2</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1211,15 +1661,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F707A9-770B-420E-AE22-90D1B9A36E81}">
-  <sheetPr codeName="Sheet2">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854AB906-5FF3-4612-B33E-0BA7EFAFE78C}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1279,28 +1729,28 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E2" s="3">
-        <v>45234</v>
+        <v>45455</v>
       </c>
       <c r="F2" s="1">
-        <v>900</v>
+        <v>1850</v>
       </c>
       <c r="G2" s="1">
         <v>500</v>
       </c>
       <c r="H2" s="1">
         <f>G2-F2</f>
-        <v>-400</v>
+        <v>-1350</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2" si="0">H2/F2</f>
-        <v>-0.44444444444444442</v>
+        <v>-0.72972972972972971</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2" si="1">G2/F2</f>
-        <v>0.55555555555555558</v>
+        <v>0.27027027027027029</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1314,28 +1764,28 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E3" s="3">
-        <v>45199</v>
+        <v>45439</v>
       </c>
       <c r="F3" s="1">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="G3" s="1">
-        <v>1800</v>
+        <v>1025</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H12" si="2">G3-F3</f>
-        <v>-100</v>
+        <v>-275</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I12" si="3">H3/F3</f>
-        <v>-5.2631578947368418E-2</v>
+        <v>-0.21153846153846154</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J12" si="4">G3/F3</f>
-        <v>0.94736842105263153</v>
+        <v>0.78846153846153844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1349,28 +1799,28 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E4" s="3">
-        <v>45216</v>
+        <v>45429</v>
       </c>
       <c r="F4" s="1">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="G4" s="1">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="3"/>
-        <v>-7.6923076923076927E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>0.92307692307692313</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1384,28 +1834,28 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E5" s="3">
-        <v>45237</v>
+        <v>45509</v>
       </c>
       <c r="F5" s="1">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="1">
-        <v>1600</v>
+        <v>975</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>-250</v>
+        <v>-1025</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="3"/>
-        <v>-0.13513513513513514</v>
+        <v>-0.51249999999999996</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>0.86486486486486491</v>
+        <v>0.48749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1419,28 +1869,28 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E6" s="3">
-        <v>45240</v>
+        <v>45394</v>
       </c>
       <c r="F6" s="1">
-        <v>900</v>
+        <v>19500</v>
       </c>
       <c r="G6" s="1">
-        <v>950</v>
+        <v>9000</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>-10500</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>-0.53846153846153844</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>1.0555555555555556</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1454,28 +1904,28 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E7" s="3">
-        <v>45225</v>
+        <v>45465</v>
       </c>
       <c r="F7" s="1">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="G7" s="1">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>-7000</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>-0.46666666666666667</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1489,28 +1939,28 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E8" s="3">
-        <v>45204</v>
+        <v>45546</v>
       </c>
       <c r="F8" s="1">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G8" s="1">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>-350</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1524,28 +1974,28 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E9" s="3">
-        <v>45208</v>
+        <v>45396</v>
       </c>
       <c r="F9" s="1">
-        <v>1150</v>
+        <v>2550</v>
       </c>
       <c r="G9" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>-750</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>0.30434782608695654</v>
+        <v>-0.29411764705882354</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>1.3043478260869565</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1559,28 +2009,28 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E10" s="3">
-        <v>45273</v>
+        <v>45423</v>
       </c>
       <c r="F10" s="1">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="G10" s="1">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-850</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.54838709677419351</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.45161290322580644</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1594,28 +2044,28 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E11" s="3">
-        <v>45272</v>
+        <v>45491</v>
       </c>
       <c r="F11" s="1">
-        <v>1450</v>
+        <v>14000</v>
       </c>
       <c r="G11" s="1">
-        <v>1100</v>
+        <v>7000</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>-350</v>
+        <v>-7000</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>-0.2413793103448276</v>
+        <v>-0.5</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="4"/>
-        <v>0.75862068965517238</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1629,480 +2079,28 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>2023</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45244</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>900</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.1</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
-    <oddFooter>&amp;L&amp;8&amp;Z&amp;F&amp;R&amp;8&amp;D &amp;T</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854AB906-5FF3-4612-B33E-0BA7EFAFE78C}">
-  <sheetPr codeName="Sheet3">
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2024</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45455</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1850</v>
-      </c>
-      <c r="G2" s="1">
-        <v>500</v>
-      </c>
-      <c r="H2" s="1">
-        <f>G2-F2</f>
-        <v>-1350</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2" si="0">H2/F2</f>
-        <v>-0.72972972972972971</v>
-      </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2" si="1">G2/F2</f>
-        <v>0.27027027027027029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2024</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45439</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1300</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1025</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H12" si="2">G3-F3</f>
-        <v>-275</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I12" si="3">H3/F3</f>
-        <v>-0.21153846153846154</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J12" si="4">G3/F3</f>
-        <v>0.78846153846153844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>2500</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45429</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2850</v>
-      </c>
-      <c r="G4" s="1">
-        <v>900</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>-1950</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.68421052631578949</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31578947368421051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>2024</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45509</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1450</v>
-      </c>
-      <c r="G5" s="1">
-        <v>975</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>-475</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.32758620689655171</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.67241379310344829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2024</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45394</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1950</v>
-      </c>
-      <c r="G6" s="1">
-        <v>975</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>-975</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>1500</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>2024</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45465</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1850</v>
-      </c>
-      <c r="G7" s="1">
-        <v>825</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>-1025</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.55405405405405406</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.44594594594594594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>2000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>2024</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45546</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1400</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1050</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>-350</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.25</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>4000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>2024</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45396</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2550</v>
-      </c>
-      <c r="G9" s="1">
-        <v>800</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>-1750</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.68627450980392157</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31372549019607843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>2000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>2024</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45423</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1550</v>
-      </c>
-      <c r="G10" s="1">
-        <v>700</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>-850</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.54838709677419351</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.45161290322580644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>3000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>2024</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45491</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2650</v>
-      </c>
-      <c r="G11" s="1">
-        <v>700</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>-1950</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.73584905660377353</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.26415094339622641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>4000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
         <v>2024</v>
       </c>
       <c r="E12" s="3">
         <v>45404</v>
       </c>
       <c r="F12" s="1">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="G12" s="1">
-        <v>925</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>-575</v>
+        <v>-3000</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
-        <v>-0.38333333333333336</v>
+        <v>-0.42857142857142855</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="4"/>
-        <v>0.6166666666666667</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
